--- a/dac.2024.digilent/model/Result_fresh.xlsx
+++ b/dac.2024.digilent/model/Result_fresh.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willr\Git\dacDT\dac.2024.digilent\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519EB525-0148-419B-9E45-7A419537EF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2957DDCA-578D-41F2-B0D4-9F1146E7DC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="4515" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Origin" sheetId="1" r:id="rId1"/>
     <sheet name="Resistor1" sheetId="4" r:id="rId2"/>
+    <sheet name="Resistor2" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -406,7 +407,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -477,7 +478,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -500,4 +501,20 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97A11D-99C3-4CF4-9DC2-3557500F5CDA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/dac.2024.digilent/model/Result_fresh.xlsx
+++ b/dac.2024.digilent/model/Result_fresh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willr\Git\dacDT\dac.2024.digilent\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitYang\dacDT\dac.2024.digilent\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2957DDCA-578D-41F2-B0D4-9F1146E7DC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F496DC4D-66C6-4AAA-B8B5-905DB0C15251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14970" yWindow="7305" windowWidth="19890" windowHeight="12900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Origin" sheetId="1" r:id="rId1"/>
@@ -27,11 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +42,14 @@
   </si>
   <si>
     <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Std</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,12 +119,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -404,68 +406,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="5" max="5" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5"/>
-    </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8"/>
+    </row>
+    <row r="8" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -477,24 +463,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB604F9D-ED66-41D3-95E8-121495BBCB20}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
